--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>GARABITO BENITO, FLORMIRA MARILUZ</t>
   </si>
@@ -154,20 +154,38 @@
     <t>VI CICLO</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Ciclo</t>
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>CABRERA PACO, EDWAR ANDRE</t>
+  </si>
+  <si>
+    <t>CABRERA OCHOA, CARMEN ROSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,75 +206,28 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Narrow"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -279,31 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,450 +548,472 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="1">
+        <v>76613389</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>75891495</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>61669503</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>75675606</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>70542600</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>71280745</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>72015162</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>72027909</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>60686306</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>77497093</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>70904425</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>73804628</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>74495281</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>72018726</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>60886470</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>62195879</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>47499540</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>40224066</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>72162650</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>75675606</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>78461236</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>70542600</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>71280745</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>72015162</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>72027909</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>60686306</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>77497093</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>44839193</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>70904425</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>73804628</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>74495281</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>72018726</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>60886470</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>62195879</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>62217767</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>70101600</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>60216374</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>70888562</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>72027912</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>72015168</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>71899252</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>71954460</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>76402173</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>74845870</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>77497579</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>72018748</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>73803959</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>73387867</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>72018734</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>76783215</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>73830812</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>75932773</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>47434968</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>72236134</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C2:C24" name="Rango1_2_1_2_1_1"/>
-    <protectedRange sqref="A12 A6:A7" name="Rango1_2_2_1_1_1_1"/>
-    <protectedRange sqref="A34:A35" name="Rango1_2_2_1_1_1_1_1"/>
+    <protectedRange sqref="A10 A2 A5" name="Rango1_2_2_1_1_1_1_2"/>
+    <protectedRange sqref="A18 A21" name="Rango1_2_2_1_1_1_1_1_1"/>
+    <protectedRange sqref="A36:A37" name="Rango1_2_2_1_1_1_1_2_1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
